--- a/Config/Excel/Datas/__beans__.xlsx
+++ b/Config/Excel/Datas/__beans__.xlsx
@@ -167,7 +167,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,12 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -813,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,34 +831,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,98 +867,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,6 +996,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1353,7 +1362,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -1403,13 +1412,13 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
@@ -1435,7 +1444,7 @@
       <c r="M2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1467,7 +1476,7 @@
       <c r="M3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="19"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" ht="16.95" spans="1:14">
       <c r="A4" s="10"/>
@@ -1476,366 +1485,366 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="23"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="24"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="23"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="24"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="23"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="24"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="23"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="24"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="16"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="23"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="24"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="25"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="23"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="24"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="25"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="23"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="24"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="25"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="23"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="24"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="25"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="23"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="24"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="16"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="23"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="24"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="25"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="16"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="23"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="24"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="24"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="25"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28"/>

--- a/Config/Excel/Datas/__beans__.xlsx
+++ b/Config/Excel/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -155,6 +155,48 @@
       </rPr>
       <t>注释</t>
     </r>
+  </si>
+  <si>
+    <t>TaskTarget</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TaskTargetType</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>TargetId</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>任务目标Id</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>任务目标数量</t>
+  </si>
+  <si>
+    <t>TaskReward</t>
+  </si>
+  <si>
+    <t>ItemId</t>
+  </si>
+  <si>
+    <t>道具Id</t>
+  </si>
+  <si>
+    <t>数量</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,13 +1070,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,7 +1413,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -1376,11 +1427,9 @@
     <col min="7" max="7" width="11.1111111111111" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.33333333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="7" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6666666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="10" max="11" width="21.6666666666667" style="2" customWidth="1"/>
     <col min="12" max="12" width="8.33333333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7" style="2" customWidth="1"/>
+    <col min="13" max="14" width="15.6666666666667" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1480,19 +1529,29 @@
     </row>
     <row r="4" ht="16.95" spans="1:14">
       <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="J4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
+      <c r="M4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="13"/>
@@ -1504,11 +1563,17 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="24"/>
+      <c r="M5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="15"/>
@@ -1520,27 +1585,43 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="J6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="25"/>
+      <c r="M6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="17"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="24"/>
+      <c r="M7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="15"/>
@@ -1552,11 +1633,17 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="25"/>
+      <c r="M8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="17"/>
@@ -1572,7 +1659,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="24"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="15"/>
@@ -1588,7 +1675,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="25"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="17"/>
@@ -1604,7 +1691,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="24"/>
+      <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="15"/>
@@ -1620,7 +1707,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="25"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="17"/>
@@ -1636,7 +1723,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="24"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="15"/>
@@ -1652,7 +1739,7 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="25"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="17"/>
@@ -1668,7 +1755,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="24"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="15"/>
@@ -1684,7 +1771,7 @@
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
-      <c r="N16" s="25"/>
+      <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="17"/>
@@ -1700,7 +1787,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="24"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="15"/>
@@ -1716,7 +1803,7 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="25"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="17"/>
@@ -1732,7 +1819,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="24"/>
+      <c r="N19" s="26"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="15"/>
@@ -1748,7 +1835,7 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="25"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="17"/>
@@ -1764,7 +1851,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="24"/>
+      <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="15"/>
@@ -1780,7 +1867,7 @@
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-      <c r="N22" s="25"/>
+      <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="17"/>
@@ -1796,7 +1883,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="24"/>
+      <c r="N23" s="26"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="15"/>
@@ -1812,7 +1899,7 @@
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
-      <c r="N24" s="25"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="17"/>
@@ -1828,7 +1915,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="24"/>
+      <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="15"/>
@@ -1844,7 +1931,7 @@
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="25"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28"/>

--- a/Config/Excel/Datas/__beans__.xlsx
+++ b/Config/Excel/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -60,7 +60,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>全名</t>
@@ -80,7 +80,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>包含模块和名字</t>
@@ -102,7 +102,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>分割符</t>
@@ -114,7 +114,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>字段名</t>
@@ -126,7 +126,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>类型</t>
@@ -138,7 +138,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>分组</t>
@@ -150,7 +150,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>注释</t>
@@ -169,7 +169,15 @@
     <t>TaskTargetType</t>
   </si>
   <si>
-    <t>任务类型</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务类型</t>
+    </r>
   </si>
   <si>
     <t>TargetId</t>
@@ -178,13 +186,38 @@
     <t>int</t>
   </si>
   <si>
-    <t>任务目标Id</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
   </si>
   <si>
     <t>Count</t>
   </si>
   <si>
-    <t>任务目标数量</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务目标数量</t>
+    </r>
   </si>
   <si>
     <t>TaskReward</t>
@@ -193,10 +226,47 @@
     <t>ItemId</t>
   </si>
   <si>
-    <t>道具Id</t>
-  </si>
-  <si>
-    <t>数量</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+  </si>
+  <si>
+    <t>MyFloat3</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -231,164 +301,164 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,133 +467,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -689,28 +747,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -738,19 +788,6 @@
         <color theme="0"/>
       </top>
       <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
         <color theme="0"/>
       </bottom>
       <diagonal/>
@@ -861,10 +898,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,222 +910,174 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,6 +1139,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A4:N11" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="14">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+    <tableColumn id="5" name="列5"/>
+    <tableColumn id="6" name="列6"/>
+    <tableColumn id="7" name="列7"/>
+    <tableColumn id="8" name="列8"/>
+    <tableColumn id="9" name="列9"/>
+    <tableColumn id="10" name="列10"/>
+    <tableColumn id="11" name="列11"/>
+    <tableColumn id="12" name="列12"/>
+    <tableColumn id="13" name="列13"/>
+    <tableColumn id="14" name="列14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1410,549 +1421,244 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.33333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.33333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7" style="2" customWidth="1"/>
-    <col min="10" max="11" width="21.6666666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.33333333333333" style="2" customWidth="1"/>
-    <col min="13" max="14" width="15.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" customWidth="1"/>
+    <col min="10" max="11" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33333333333333" style="1" customWidth="1"/>
+    <col min="13" max="14" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="16.95" spans="1:14">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="18.15" spans="1:14">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="20"/>
+      <c r="N3" s="12"/>
     </row>
-    <row r="4" ht="16.95" spans="1:14">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" ht="18.15" spans="2:13">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="21" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="24" t="s">
+    <row r="5" ht="17.4" spans="10:13">
+      <c r="J5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="25" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="26"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+    <row r="6" ht="17.4" spans="10:13">
+      <c r="J6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="27" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" ht="17.4" spans="2:13">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="25" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
+    <row r="8" ht="17.4" spans="10:13">
+      <c r="J8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="27" t="s">
+      <c r="L8" s="1"/>
+      <c r="M8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="28"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="26"/>
+    <row r="9" spans="2:11">
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="28"/>
+    <row r="10" spans="10:11">
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="17"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="26"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="28"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="26"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="26"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="28"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="26"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="26"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="28"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="26"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="28"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="26"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="28"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="26"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="28"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
+    <row r="11" spans="10:11">
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1961,5 +1667,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>